--- a/Все_бронирования.xlsx
+++ b/Все_бронирования.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,12 +483,12 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
+          <t>От туроператора</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
           <t>Трансфер</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>От туроператора</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
@@ -499,556 +499,294 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Гаджимагомедов Гаджимагомед Гетиномагомедович</t>
+          <t>Иванов Иван Иванович</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023-03-01</t>
+          <t>1987-02-01</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4555</v>
+        <v>1000</v>
       </c>
       <c r="F2" t="n">
-        <v>95655</v>
+        <v>7000</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>комм</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Гаджимагомедов Гаджимагомед Гетиномагомедович</t>
+          <t>Семенов Семен</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023-03-01</t>
+          <t>1876-03-03</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="F3" t="n">
-        <v>84000</v>
+        <v>3000</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Нужен</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>ком2</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ануа Леван Виссарионович</t>
+          <t>Петя</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023-03-01</t>
+          <t>1998-08-01</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="F4" t="n">
-        <v>42000</v>
+        <v>20000</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Нужен</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>ком</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Николаева Анна Владимировна</t>
+          <t>Вася</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023-03-01</t>
+          <t>1988-08-03</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="F5" t="n">
-        <v>21000</v>
+        <v>50000</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Нужен</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>комм</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Николаева Анна Владимировна</t>
+          <t>Серега</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023-02-28</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4344</v>
+        <v>1000</v>
       </c>
       <c r="F6" t="n">
-        <v>17376</v>
+        <v>10000</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Нужен</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Николаева Анна Владимировна</t>
+          <t>Маша</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023-02-26</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5555</v>
+        <v>1000</v>
       </c>
       <c r="F7" t="n">
-        <v>11110</v>
+        <v>10000</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Нужен</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ильин Николай Васильевич</t>
+          <t>Даша</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>201</v>
+        <v>108</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023-03-05</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5555</v>
+        <v>5000</v>
       </c>
       <c r="F8" t="n">
-        <v>16665</v>
+        <v>50000</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr">
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
         <is>
           <t>Нужен</t>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>30</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Ильин Николай Васильевич</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>104</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2023-02-26</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>434</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1302</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Нужен</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>geergr</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>31</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Ильин Николай Васильевич</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>204</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2023-02-26</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F10" t="n">
-        <v>160000</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Нужен</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">comment </t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>32</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Николаева Анна Владимировна</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>301</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2023-02-27</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>1233</v>
-      </c>
-      <c r="F11" t="n">
-        <v>17262</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5</v>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Нужен</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">comment </t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>33</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Ануа Леван Виссарионович</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>101</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
-        <v>5000</v>
-      </c>
-      <c r="F12" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>37</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Ануа Леван Виссарионович</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>304</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>1111</v>
-      </c>
-      <c r="F13" t="n">
-        <v>7777</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>38</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Ануа Леван Виссарионович</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>302</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>1111</v>
-      </c>
-      <c r="F14" t="n">
-        <v>7777</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>39</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Ануа Леван Виссарионович</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>303</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>1111</v>
-      </c>
-      <c r="F15" t="n">
-        <v>7777</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>40</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Шаповалов Александр Александрович</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>304</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>1111</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3333</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>41</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Бондаренко Виктория Андреевна</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>304</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>1111</v>
-      </c>
-      <c r="F17" t="n">
-        <v>7777</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>123123123123</t>
-        </is>
-      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Все_бронирования.xlsx
+++ b/Все_бронирования.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,130 +498,136 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>42</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3434/52!23@#$@$/</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Иванов Иван Иванович</t>
+          <t>Fefef</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1987-02-01</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="F2" t="n">
-        <v>7000</v>
+        <v>45000</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Нужен</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>комм</t>
+          <t>rjvv</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>43</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Семенов Семен</t>
+          <t>Иванов Иван Иванович</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1876-03-03</t>
+          <t>1987-02-01</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>1000</v>
       </c>
       <c r="F3" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Нужен</t>
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Да</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>ком2</t>
+          <t>комм</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>44</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Петя</t>
+          <t>Семенов Семен</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1998-08-01</t>
+          <t>1876-03-03</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="F4" t="n">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -630,40 +636,47 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>ком</t>
+          <t>ком2</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>45</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Вася</t>
+          <t>Петя</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1988-08-03</t>
+          <t>1998-08-01</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F5" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>1</v>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -672,63 +685,71 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>комм</t>
+          <t>ком</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>46</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Серега</t>
+          <t>Вася</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>1988-08-03</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="F6" t="n">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>Нужен</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>комм</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>47</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Маша</t>
+          <t>Серега</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -740,10 +761,10 @@
       <c r="G7" t="n">
         <v>1</v>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
@@ -753,16 +774,18 @@
       <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>48</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Даша</t>
+          <t>Маша</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -770,16 +793,18 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="F8" t="n">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
@@ -787,6 +812,98 @@
         </is>
       </c>
       <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Vfif</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>108</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2023-08-02</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Нужен</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>102</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>4000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>36000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
